--- a/src/test/resources/excel/AppData.xlsx
+++ b/src/test/resources/excel/AppData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateUser_Details" sheetId="1" r:id="rId1"/>
+    <sheet name="createUser" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Userid</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>User2@email.com</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>8897889999</t>
   </si>
 </sst>
 </file>
@@ -125,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -414,7 +421,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,11 +457,11 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>8897889999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9999999999</v>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>1</v>
